--- a/数学题目背诵.xlsx
+++ b/数学题目背诵.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>学习日期</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>函数的极限与连续</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>数列的极限、一元函数微分学的概念</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1035,7 @@
   <dimension ref="A1:Q154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:I12"/>
+      <selection activeCell="L17" sqref="L17:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1146,7 +1152,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1175,9 +1183,13 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>45583</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4617,7 +4629,6 @@
     <mergeCell ref="C33:I34"/>
     <mergeCell ref="C35:I36"/>
     <mergeCell ref="C37:I38"/>
-    <mergeCell ref="A7:B8"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="A13:B14"/>
@@ -4749,6 +4760,7 @@
     <mergeCell ref="A89:B90"/>
     <mergeCell ref="A91:B92"/>
     <mergeCell ref="A93:B94"/>
+    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数学题目背诵.xlsx
+++ b/数学题目背诵.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>学习日期</t>
   </si>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Q154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L18"/>
+      <selection activeCell="N13" sqref="N13:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1155,7 +1155,9 @@
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1196,7 +1198,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
